--- a/data/trans_orig/IP2904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758AC595-0B02-4825-9DC5-B4BBEC191938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{540820EE-613C-40D3-9E8B-66D0152232F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8787197-D282-4599-AB62-23F3DF80F9E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECE7E12-D4CE-4B1B-949A-78B07426F563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="329">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
@@ -106,916 +106,925 @@
     <t>46,89%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>49,67%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>43,67%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2015 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>24,74%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
+    <t>34,23%</t>
+  </si>
+  <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>27,07%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891C39B7-BC50-4500-A357-A3EB67733FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE5E92-DC63-4A12-AE9D-75A98126FA6A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,10 +1878,10 @@
         <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -1881,13 +1890,13 @@
         <v>58260</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,7 +1952,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1955,13 +1964,13 @@
         <v>213366</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>272</v>
@@ -1970,13 +1979,13 @@
         <v>178586</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>595</v>
@@ -1985,13 +1994,13 @@
         <v>391952</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2015,13 @@
         <v>120224</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -2021,13 +2030,13 @@
         <v>85142</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>307</v>
@@ -2036,13 +2045,13 @@
         <v>205366</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,13 +2066,13 @@
         <v>124819</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -2072,13 +2081,13 @@
         <v>133807</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -2087,13 +2096,13 @@
         <v>258627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2158,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2161,13 +2170,13 @@
         <v>55558</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -2176,13 +2185,13 @@
         <v>73137</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -2191,13 +2200,13 @@
         <v>128695</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2221,13 @@
         <v>47169</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -2227,13 +2236,13 @@
         <v>50382</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -2242,13 +2251,13 @@
         <v>97551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2272,13 @@
         <v>48632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -2278,13 +2287,13 @@
         <v>41790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>133</v>
@@ -2293,13 +2302,13 @@
         <v>90423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2376,13 @@
         <v>308797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>447</v>
@@ -2382,13 +2391,13 @@
         <v>297498</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>913</v>
@@ -2397,13 +2406,13 @@
         <v>606295</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2427,13 @@
         <v>183754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>219</v>
@@ -2433,13 +2442,13 @@
         <v>146960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>493</v>
@@ -2448,13 +2457,13 @@
         <v>330714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2478,13 @@
         <v>201431</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -2484,13 +2493,13 @@
         <v>205878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>611</v>
@@ -2499,13 +2508,13 @@
         <v>407309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,7 +2570,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D51F84-E004-4F32-AE83-2B3B80A93802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3814F6BB-8D0F-4876-9B2B-1D460867034D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2598,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2903,13 +2912,13 @@
         <v>38263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -2918,13 +2927,13 @@
         <v>46097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -2933,13 +2942,13 @@
         <v>84360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2963,13 @@
         <v>20857</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -2969,13 +2978,13 @@
         <v>21019</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -2984,13 +2993,13 @@
         <v>41876</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3014,13 @@
         <v>23547</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3020,13 +3029,13 @@
         <v>22301</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3035,13 +3044,13 @@
         <v>45848</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3106,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3118,13 @@
         <v>244485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -3124,13 +3133,13 @@
         <v>213388</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>664</v>
@@ -3139,13 +3148,13 @@
         <v>457873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3169,13 @@
         <v>116325</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -3175,13 +3184,13 @@
         <v>102805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>319</v>
@@ -3190,13 +3199,13 @@
         <v>219130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3220,13 @@
         <v>116132</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -3226,13 +3235,13 @@
         <v>118400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -3241,13 +3250,13 @@
         <v>234533</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3312,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3324,13 @@
         <v>72109</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3330,13 +3339,13 @@
         <v>68829</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>201</v>
@@ -3345,13 +3354,13 @@
         <v>140938</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3375,13 @@
         <v>54578</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3381,13 +3390,13 @@
         <v>43945</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -3396,13 +3405,13 @@
         <v>98523</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3426,13 @@
         <v>35523</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -3432,13 +3441,13 @@
         <v>47209</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>115</v>
@@ -3447,13 +3456,13 @@
         <v>82733</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3530,13 @@
         <v>354857</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>477</v>
@@ -3536,13 +3545,13 @@
         <v>328314</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>987</v>
@@ -3551,13 +3560,13 @@
         <v>683171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3581,13 @@
         <v>191760</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>239</v>
@@ -3587,13 +3596,13 @@
         <v>167769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -3602,13 +3611,13 @@
         <v>359530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3632,13 @@
         <v>175843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -3638,13 +3647,13 @@
         <v>187910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M22" s="7">
         <v>511</v>
@@ -3653,13 +3662,13 @@
         <v>363754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3724,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7623432-EBA4-433D-A8DC-CE70454ADD43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98400466-B003-40B3-B6EA-52CBDA7B697C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4041,13 +4050,13 @@
         <v>36722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -4056,13 +4065,13 @@
         <v>29905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4071,13 +4080,13 @@
         <v>66627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4101,13 @@
         <v>12156</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4107,13 +4116,13 @@
         <v>10615</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -4122,13 +4131,13 @@
         <v>22771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4152,13 @@
         <v>15602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4158,13 +4167,13 @@
         <v>15588</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -4173,13 +4182,13 @@
         <v>31190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4244,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4247,13 +4256,13 @@
         <v>201375</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -4262,13 +4271,13 @@
         <v>205557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7">
         <v>603</v>
@@ -4277,13 +4286,13 @@
         <v>406933</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4307,13 @@
         <v>122953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -4313,13 +4322,13 @@
         <v>117204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -4328,13 +4337,13 @@
         <v>240157</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4358,13 @@
         <v>146627</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4364,13 +4373,13 @@
         <v>132782</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>404</v>
@@ -4379,10 +4388,10 @@
         <v>279409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>280</v>
@@ -4441,7 +4450,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4474,7 +4483,7 @@
         <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -4483,13 +4492,13 @@
         <v>123172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4513,13 @@
         <v>54152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -4519,13 +4528,13 @@
         <v>50991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -4534,13 +4543,13 @@
         <v>105143</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4564,13 @@
         <v>60458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -4570,13 +4579,13 @@
         <v>53237</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -4585,13 +4594,13 @@
         <v>113695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4668,13 @@
         <v>300387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -4674,13 +4683,13 @@
         <v>296343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>887</v>
@@ -4689,13 +4698,13 @@
         <v>596731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4719,7 @@
         <v>189261</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>314</v>
@@ -4728,10 +4737,10 @@
         <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>535</v>
@@ -4740,13 +4749,13 @@
         <v>368071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4770,13 @@
         <v>222687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -4776,13 +4785,13 @@
         <v>201607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
@@ -4791,13 +4800,13 @@
         <v>424294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4862,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{540820EE-613C-40D3-9E8B-66D0152232F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FA8BA4-DBE5-47E8-975B-EA5791901ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8ECE7E12-D4CE-4B1B-949A-78B07426F563}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{54918794-5E60-431F-AD56-42547D9C0661}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="325">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,964 +67,952 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Solo biberon</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>27,23%</t>
   </si>
   <si>
-    <t>24,42%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
     <t>37,57%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>24,74%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>28,36%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>32,65%</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1424,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE5E92-DC63-4A12-AE9D-75A98126FA6A}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC56DDF-FD0F-4866-A4B9-31E274F2F4CB}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1554,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>45775</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1569,130 +1557,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="I4" s="7">
+        <v>39146</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>84921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>11437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16361</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>27797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>30280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27980</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>58260</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,202 +1695,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>87492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="I7" s="7">
+        <v>83487</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>170979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>39146</v>
+        <v>178586</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>45775</v>
+        <v>213366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>128</v>
+        <v>595</v>
       </c>
       <c r="N8" s="7">
-        <v>84921</v>
+        <v>391952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>16361</v>
+        <v>85142</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="I9" s="7">
-        <v>11437</v>
+        <v>120224</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="N9" s="7">
-        <v>27797</v>
+        <v>205366</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>27980</v>
+        <v>133807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>30280</v>
+        <v>124819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>87</v>
+        <v>391</v>
       </c>
       <c r="N10" s="7">
-        <v>58260</v>
+        <v>258627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,204 +1901,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>125</v>
+        <v>601</v>
       </c>
       <c r="D11" s="7">
-        <v>83487</v>
+        <v>397535</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>131</v>
+        <v>692</v>
       </c>
       <c r="I11" s="7">
-        <v>87492</v>
+        <v>458409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>256</v>
+        <v>1293</v>
       </c>
       <c r="N11" s="7">
-        <v>170979</v>
+        <v>855945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7">
-        <v>213366</v>
+        <v>73137</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7">
-        <v>178586</v>
+        <v>55558</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>595</v>
+        <v>189</v>
       </c>
       <c r="N12" s="7">
-        <v>391952</v>
+        <v>128695</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>120224</v>
+        <v>50382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>85142</v>
+        <v>47169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>205366</v>
+        <v>97551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>124819</v>
+        <v>41790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>133807</v>
+        <v>48632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="N14" s="7">
-        <v>258627</v>
+        <v>90423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,204 +2107,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>692</v>
+        <v>241</v>
       </c>
       <c r="D15" s="7">
-        <v>458409</v>
+        <v>165309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>601</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>397535</v>
+        <v>151359</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1293</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>855945</v>
+        <v>316668</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="D16" s="7">
-        <v>55558</v>
+        <v>297498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="I16" s="7">
-        <v>73137</v>
+        <v>308070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>189</v>
+        <v>912</v>
       </c>
       <c r="N16" s="7">
-        <v>128695</v>
+        <v>605569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D17" s="7">
-        <v>47169</v>
+        <v>146960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
+        <v>274</v>
+      </c>
+      <c r="I17" s="7">
+        <v>183754</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="7">
+        <v>493</v>
+      </c>
+      <c r="N17" s="7">
+        <v>330714</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>75</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50382</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>145</v>
-      </c>
-      <c r="N17" s="7">
-        <v>97551</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="D18" s="7">
-        <v>48632</v>
+        <v>205878</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="I18" s="7">
-        <v>41790</v>
+        <v>201431</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>133</v>
+        <v>611</v>
       </c>
       <c r="N18" s="7">
-        <v>90423</v>
+        <v>407309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,267 +2313,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>226</v>
+        <v>973</v>
       </c>
       <c r="D19" s="7">
-        <v>151359</v>
+        <v>650336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>241</v>
+        <v>1043</v>
       </c>
       <c r="I19" s="7">
-        <v>165309</v>
+        <v>693255</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>467</v>
+        <v>2016</v>
       </c>
       <c r="N19" s="7">
-        <v>316668</v>
+        <v>1343592</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>466</v>
-      </c>
-      <c r="D20" s="7">
-        <v>308797</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>447</v>
-      </c>
-      <c r="I20" s="7">
-        <v>297498</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>913</v>
-      </c>
-      <c r="N20" s="7">
-        <v>606295</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>274</v>
-      </c>
-      <c r="D21" s="7">
-        <v>183754</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="7">
-        <v>219</v>
-      </c>
-      <c r="I21" s="7">
-        <v>146960</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="7">
-        <v>493</v>
-      </c>
-      <c r="N21" s="7">
-        <v>330714</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>304</v>
-      </c>
-      <c r="D22" s="7">
-        <v>201431</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="7">
-        <v>307</v>
-      </c>
-      <c r="I22" s="7">
-        <v>205878</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M22" s="7">
-        <v>611</v>
-      </c>
-      <c r="N22" s="7">
-        <v>407309</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1044</v>
-      </c>
-      <c r="D23" s="7">
-        <v>693982</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>973</v>
-      </c>
-      <c r="I23" s="7">
-        <v>650336</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2017</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1344318</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2590,8 +2379,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3814F6BB-8D0F-4876-9B2B-1D460867034D}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6EBD96-BCB3-45A0-9BC5-B678D8FF09D8}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2607,7 +2396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2708,145 +2497,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>46097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="I4" s="7">
+        <v>38263</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>84360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>21019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20857</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>41876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>22301</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>23547</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>45848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,202 +2650,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>89417</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I7" s="7">
+        <v>82666</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>172084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>54</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>38263</v>
+        <v>213388</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>353</v>
       </c>
       <c r="I8" s="7">
-        <v>46097</v>
+        <v>244485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>122</v>
+        <v>664</v>
       </c>
       <c r="N8" s="7">
-        <v>84360</v>
+        <v>457873</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>20857</v>
+        <v>102805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="I9" s="7">
-        <v>21019</v>
+        <v>116325</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="N9" s="7">
-        <v>41876</v>
+        <v>219130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7">
-        <v>23547</v>
+        <v>118400</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>22301</v>
+        <v>116132</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="N10" s="7">
-        <v>45848</v>
+        <v>234533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,204 +2856,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>629</v>
       </c>
       <c r="D11" s="7">
-        <v>82666</v>
+        <v>434594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>89417</v>
+        <v>476943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>246</v>
+        <v>1314</v>
       </c>
       <c r="N11" s="7">
-        <v>172084</v>
+        <v>911536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7">
-        <v>244485</v>
+        <v>68829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>213388</v>
+        <v>72109</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
-        <v>664</v>
+        <v>201</v>
       </c>
       <c r="N12" s="7">
-        <v>457873</v>
+        <v>140938</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>116325</v>
+        <v>43945</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>102805</v>
+        <v>54578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="N13" s="7">
-        <v>219130</v>
+        <v>98523</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>116132</v>
+        <v>47209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>118400</v>
+        <v>35523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>234533</v>
+        <v>82733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,204 +3062,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>685</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>476942</v>
+        <v>159983</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>629</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>434594</v>
+        <v>162210</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1314</v>
+        <v>455</v>
       </c>
       <c r="N15" s="7">
-        <v>911536</v>
+        <v>322194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>477</v>
       </c>
       <c r="D16" s="7">
-        <v>72109</v>
+        <v>328315</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
-        <v>98</v>
+        <v>510</v>
       </c>
       <c r="I16" s="7">
-        <v>68829</v>
+        <v>354857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
-        <v>201</v>
+        <v>987</v>
       </c>
       <c r="N16" s="7">
-        <v>140938</v>
+        <v>683171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="D17" s="7">
-        <v>54578</v>
+        <v>167770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="I17" s="7">
-        <v>43945</v>
+        <v>191760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="N17" s="7">
-        <v>98523</v>
+        <v>359530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>35523</v>
+        <v>187911</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="I18" s="7">
-        <v>47209</v>
+        <v>175202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
-        <v>115</v>
+        <v>510</v>
       </c>
       <c r="N18" s="7">
-        <v>82733</v>
+        <v>363113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,267 +3268,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>229</v>
+        <v>985</v>
       </c>
       <c r="D19" s="7">
-        <v>162210</v>
+        <v>683995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>226</v>
+        <v>1030</v>
       </c>
       <c r="I19" s="7">
-        <v>159983</v>
+        <v>721819</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>455</v>
+        <v>2015</v>
       </c>
       <c r="N19" s="7">
-        <v>322194</v>
+        <v>1405813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>510</v>
-      </c>
-      <c r="D20" s="7">
-        <v>354857</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H20" s="7">
-        <v>477</v>
-      </c>
-      <c r="I20" s="7">
-        <v>328314</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M20" s="7">
-        <v>987</v>
-      </c>
-      <c r="N20" s="7">
-        <v>683171</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>279</v>
-      </c>
-      <c r="D21" s="7">
-        <v>191760</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="7">
-        <v>239</v>
-      </c>
-      <c r="I21" s="7">
-        <v>167769</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="7">
-        <v>518</v>
-      </c>
-      <c r="N21" s="7">
-        <v>359530</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>242</v>
-      </c>
-      <c r="D22" s="7">
-        <v>175843</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="7">
-        <v>269</v>
-      </c>
-      <c r="I22" s="7">
-        <v>187910</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" s="7">
-        <v>511</v>
-      </c>
-      <c r="N22" s="7">
-        <v>363754</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1031</v>
-      </c>
-      <c r="D23" s="7">
-        <v>722460</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>985</v>
-      </c>
-      <c r="I23" s="7">
-        <v>683994</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2016</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1406454</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
+      <c r="A20" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3744,8 +3334,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98400466-B003-40B3-B6EA-52CBDA7B697C}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9649E6B7-61E6-4053-9024-330A56FD0A85}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3761,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3862,133 +3452,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29905</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36722</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="N4" s="7">
+        <v>66627</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10615</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12156</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22771</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15588</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15602</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31190</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,198 +3605,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D7" s="7">
+        <v>56108</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>64480</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="N7" s="7">
+        <v>120588</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>36722</v>
+        <v>205557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="I8" s="7">
-        <v>29905</v>
+        <v>201375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>102</v>
+        <v>603</v>
       </c>
       <c r="N8" s="7">
-        <v>66627</v>
+        <v>406932</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>12156</v>
+        <v>117204</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="I9" s="7">
-        <v>10615</v>
+        <v>122953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
-        <v>31</v>
+        <v>351</v>
       </c>
       <c r="N9" s="7">
-        <v>22771</v>
+        <v>240156</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="D10" s="7">
-        <v>15602</v>
+        <v>132782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>15588</v>
+        <v>146627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="N10" s="7">
-        <v>31190</v>
+        <v>279408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,204 +3811,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="D11" s="7">
-        <v>64480</v>
+        <v>455543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>56108</v>
+        <v>470955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>177</v>
+        <v>1358</v>
       </c>
       <c r="N11" s="7">
-        <v>120588</v>
+        <v>926497</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>201375</v>
+        <v>60882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="I12" s="7">
-        <v>205557</v>
+        <v>62290</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="M12" s="7">
-        <v>603</v>
+        <v>182</v>
       </c>
       <c r="N12" s="7">
-        <v>406933</v>
+        <v>123172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>122953</v>
+        <v>50991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>117204</v>
+        <v>54152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
-        <v>351</v>
+        <v>153</v>
       </c>
       <c r="N13" s="7">
-        <v>240157</v>
+        <v>105143</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7">
-        <v>146627</v>
+        <v>53237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7">
-        <v>132782</v>
+        <v>60458</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
-        <v>404</v>
+        <v>167</v>
       </c>
       <c r="N14" s="7">
-        <v>279409</v>
+        <v>113695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,204 +4017,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>670</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7">
-        <v>470955</v>
+        <v>165110</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>688</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7">
-        <v>455543</v>
+        <v>176901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1358</v>
+        <v>502</v>
       </c>
       <c r="N15" s="7">
-        <v>926498</v>
+        <v>342010</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>91</v>
+        <v>451</v>
       </c>
       <c r="D16" s="7">
-        <v>62290</v>
+        <v>296343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="I16" s="7">
-        <v>60882</v>
+        <v>300387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
-        <v>182</v>
+        <v>887</v>
       </c>
       <c r="N16" s="7">
-        <v>123172</v>
+        <v>596731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>54152</v>
+        <v>178810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="I17" s="7">
-        <v>50991</v>
+        <v>189261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="N17" s="7">
-        <v>105143</v>
+        <v>368071</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="D18" s="7">
-        <v>60458</v>
+        <v>201607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="I18" s="7">
-        <v>53237</v>
+        <v>222687</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
-        <v>167</v>
+        <v>615</v>
       </c>
       <c r="N18" s="7">
-        <v>113695</v>
+        <v>424293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,267 +4223,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>255</v>
+        <v>1019</v>
       </c>
       <c r="D19" s="7">
-        <v>176901</v>
+        <v>676760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>247</v>
+        <v>1018</v>
       </c>
       <c r="I19" s="7">
-        <v>165110</v>
+        <v>712335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>502</v>
+        <v>2037</v>
       </c>
       <c r="N19" s="7">
-        <v>342010</v>
+        <v>1389095</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>436</v>
-      </c>
-      <c r="D20" s="7">
-        <v>300387</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>451</v>
-      </c>
-      <c r="I20" s="7">
-        <v>296343</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="7">
-        <v>887</v>
-      </c>
-      <c r="N20" s="7">
-        <v>596731</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7">
-        <v>189261</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" s="7">
-        <v>264</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178810</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M21" s="7">
-        <v>535</v>
-      </c>
-      <c r="N21" s="7">
-        <v>368071</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>311</v>
-      </c>
-      <c r="D22" s="7">
-        <v>222687</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="7">
-        <v>304</v>
-      </c>
-      <c r="I22" s="7">
-        <v>201607</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M22" s="7">
-        <v>615</v>
-      </c>
-      <c r="N22" s="7">
-        <v>424294</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1018</v>
-      </c>
-      <c r="D23" s="7">
-        <v>712335</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1019</v>
-      </c>
-      <c r="I23" s="7">
-        <v>676760</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2037</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1389096</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>127</v>
+      <c r="A20" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
